--- a/mysite/dummy_data.xlsx
+++ b/mysite/dummy_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D4605624-18C7-45C4-AD70-671A0F5B07EB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6F39CA39-9E66-4902-8696-361599B90221}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,16 +28,16 @@
     <t>Score</t>
   </si>
   <si>
-    <t>Lucy</t>
-  </si>
-  <si>
-    <t>Lily</t>
-  </si>
-  <si>
-    <t>Han Meimei</t>
-  </si>
-  <si>
-    <t>LiLei</t>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>Vincent</t>
   </si>
 </sst>
 </file>
@@ -358,7 +358,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,7 +379,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -387,23 +387,23 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
